--- a/H0FR1/Released/BOM/H0FR.xlsx
+++ b/H0FR1/Released/BOM/H0FR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK PEICE\HEXABITZ\h0fr1\H0FR10\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My Hexabitz Files\008 ac dc breaker modules\H0FR1x-Hardware\H0FR1\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
